--- a/Source/DK.Web/ReportTemplates/ImportForm.xlsx
+++ b/Source/DK.Web/ReportTemplates/ImportForm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F40A978-407B-4E4C-98FE-671059CA4989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2AEC01-22BA-49B5-A0F4-BCE5934390C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>TT</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Serial (số khung/số máy)</t>
   </si>
   <si>
-    <t>Nguyên giá kiểm kê</t>
-  </si>
-  <si>
     <t>Thuộc hợp đồng</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Hao mòn lũy kế</t>
   </si>
   <si>
-    <t>Số lượng kế toán</t>
-  </si>
-  <si>
     <t>Mã nhóm tài sản</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>Cấp công trình</t>
   </si>
   <si>
-    <t>Số lượng kiểm kê</t>
-  </si>
-  <si>
     <t>Số tầng</t>
   </si>
   <si>
@@ -189,12 +180,6 @@
     <t>&lt;#row.SoLuong&gt;</t>
   </si>
   <si>
-    <t>&lt;#row.NguyenGiaKiemKe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#row.SoLuongKiemKe&gt;</t>
-  </si>
-  <si>
     <t>&lt;#row.HaoMonLuyKe&gt;</t>
   </si>
   <si>
@@ -238,6 +223,15 @@
   </si>
   <si>
     <t>&lt;#row.JoinedTags&gt;</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Khối lượng (kg)</t>
+  </si>
+  <si>
+    <t>&lt;#row.KhoiLuong&gt;</t>
   </si>
 </sst>
 </file>
@@ -282,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,7 +285,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -334,14 +340,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -670,12 +685,14 @@
     <col min="9" max="9" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5546875" style="1" customWidth="1"/>
     <col min="11" max="16" width="9.109375" style="1"/>
-    <col min="17" max="21" width="16.33203125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.5546875" customWidth="1"/>
-    <col min="36" max="16384" width="9.109375" style="1"/>
+    <col min="17" max="18" width="16.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5546875" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -683,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -707,10 +724,10 @@
         <v>7</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>8</v>
@@ -728,61 +745,58 @@
         <v>15</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -846,154 +860,148 @@
       <c r="U2" s="2">
         <v>21</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="2">
         <v>22</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="2">
         <v>23</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="2">
         <v>24</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="2">
         <v>25</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2" s="2">
         <v>26</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2" s="2">
         <v>27</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2" s="2">
         <v>28</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AC2" s="2">
         <v>29</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AD2" s="2">
         <v>30</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AE2" s="2">
         <v>31</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AF2" s="2">
         <v>32</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AG2" s="2">
         <v>33</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AH2" s="2">
         <v>34</v>
       </c>
-      <c r="AI2" s="3">
+    </row>
+    <row r="3" spans="1:34" s="8" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="F3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="I3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="J3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="K3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="L3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="M3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="N3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="O3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="P3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="Q3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="R3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="S3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="U3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="V3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="W3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="X3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="Y3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="Z3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="AA3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="AB3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="AC3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AD3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AE3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AF3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AG3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AH3" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Source/DK.Web/ReportTemplates/ImportForm.xlsx
+++ b/Source/DK.Web/ReportTemplates/ImportForm.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2AEC01-22BA-49B5-A0F4-BCE5934390C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>TT</t>
   </si>
@@ -45,18 +44,12 @@
     <t>Chủng loại</t>
   </si>
   <si>
-    <t>Danh mục</t>
-  </si>
-  <si>
     <t>Mã tài sản</t>
   </si>
   <si>
     <t>Xuất xứ</t>
   </si>
   <si>
-    <t>Nguồn kinh phí</t>
-  </si>
-  <si>
     <t>Ngân sách năm</t>
   </si>
   <si>
@@ -96,9 +89,6 @@
     <t>Hao mòn lũy kế</t>
   </si>
   <si>
-    <t>Mã nhóm tài sản</t>
-  </si>
-  <si>
     <t>Tên nhóm tài sản</t>
   </si>
   <si>
@@ -132,9 +122,6 @@
     <t>&lt;#row.Code&gt;</t>
   </si>
   <si>
-    <t>&lt;#row.GroupCode&gt;</t>
-  </si>
-  <si>
     <t>&lt;#row.GroupName&gt;</t>
   </si>
   <si>
@@ -144,9 +131,6 @@
     <t>&lt;#row.ChungLoai&gt;</t>
   </si>
   <si>
-    <t>&lt;#row.DanhMuc&gt;</t>
-  </si>
-  <si>
     <t>&lt;#row.NhanHieu&gt;</t>
   </si>
   <si>
@@ -232,12 +216,21 @@
   </si>
   <si>
     <t>&lt;#row.KhoiLuong&gt;</t>
+  </si>
+  <si>
+    <t>Ngân sách khác</t>
+  </si>
+  <si>
+    <t>Nguồn kinh phí bộ</t>
+  </si>
+  <si>
+    <t>&lt;#row.NganSachKhac&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -329,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -358,6 +351,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,117 +677,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="8" width="9.109375" style="1"/>
-    <col min="9" max="9" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="1" customWidth="1"/>
-    <col min="11" max="16" width="9.109375" style="1"/>
-    <col min="17" max="18" width="16.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15.5546875" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
+    <col min="9" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="16.28515625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" style="12" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="14"/>
+    <col min="26" max="26" width="15.5703125" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="T1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="AD1" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>25</v>
@@ -789,14 +797,11 @@
       <c r="AF1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>30</v>
+      <c r="AG1" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -896,112 +901,106 @@
       <c r="AG2" s="2">
         <v>33</v>
       </c>
-      <c r="AH2" s="2">
+    </row>
+    <row r="3" spans="1:33" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" s="8" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="G3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="L3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="N3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="O3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="P3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="Q3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="R3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="T3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="U3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="V3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="W3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" s="7" t="s">
+      <c r="X3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="Y3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="Z3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="AA3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="AB3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="AC3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="AD3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AE3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AG3" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Source/DK.Web/ReportTemplates/ImportForm.xlsx
+++ b/Source/DK.Web/ReportTemplates/ImportForm.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>TT</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>&lt;#row.NganSachKhac&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.BienSo&gt;</t>
+  </si>
+  <si>
+    <t>Biển số</t>
   </si>
 </sst>
 </file>
@@ -678,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -696,11 +702,11 @@
     <col min="18" max="18" width="9.5703125" style="12" customWidth="1"/>
     <col min="19" max="19" width="16.28515625" style="12" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="14"/>
-    <col min="26" max="26" width="15.5703125" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="1"/>
+    <col min="27" max="27" width="15.5703125" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -777,31 +783,34 @@
         <v>3</v>
       </c>
       <c r="Z1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -901,8 +910,11 @@
       <c r="AG2" s="2">
         <v>33</v>
       </c>
+      <c r="AH2" s="2">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -979,27 +991,30 @@
         <v>51</v>
       </c>
       <c r="Z3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AF3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AH3" s="9" t="s">
         <v>59</v>
       </c>
     </row>

--- a/Source/DK.Web/ReportTemplates/ImportForm.xlsx
+++ b/Source/DK.Web/ReportTemplates/ImportForm.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>TT</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>Biển số</t>
+  </si>
+  <si>
+    <t>Số hiệu</t>
+  </si>
+  <si>
+    <t>&lt;#row.Number&gt;</t>
   </si>
 </sst>
 </file>
@@ -684,133 +690,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:AH2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="16.28515625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" style="12" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="14"/>
-    <col min="27" max="27" width="15.5703125" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="5" width="7" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="16.28515625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" style="12" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" style="12" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="14" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -913,108 +922,114 @@
       <c r="AH2" s="2">
         <v>34</v>
       </c>
+      <c r="AI2" s="2">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="U3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="W3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Z3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="AA3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AB3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AG3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AI3" s="9" t="s">
         <v>59</v>
       </c>
     </row>

--- a/Source/DK.Web/ReportTemplates/ImportForm.xlsx
+++ b/Source/DK.Web/ReportTemplates/ImportForm.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ED313B-F260-4D9C-B937-18C1A310DBF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
+    <workbookView xWindow="612" yWindow="1812" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -242,7 +243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -689,30 +690,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="16.28515625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" style="12" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="14" customWidth="1"/>
-    <col min="28" max="28" width="15.5703125" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7" style="8" customWidth="1"/>
+    <col min="2" max="5" width="7" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="1" customWidth="1"/>
+    <col min="10" max="16" width="9.109375" style="1"/>
+    <col min="17" max="17" width="16.33203125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" style="12" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" style="12" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" style="14" customWidth="1"/>
+    <col min="28" max="28" width="15.5546875" customWidth="1"/>
+    <col min="36" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -819,7 +821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -926,7 +928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" s="8" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>

--- a/Source/DK.Web/ReportTemplates/ImportForm.xlsx
+++ b/Source/DK.Web/ReportTemplates/ImportForm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ED313B-F260-4D9C-B937-18C1A310DBF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7401E488-91DB-4839-AC73-074BBB3D9365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="1812" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33017" yWindow="-5623" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>TT</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>&lt;#row.Number&gt;</t>
+  </si>
+  <si>
+    <t>Hệ thống TS</t>
+  </si>
+  <si>
+    <t>&lt;#row.HeThongTS&gt;</t>
   </si>
 </sst>
 </file>
@@ -691,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -710,11 +716,11 @@
     <col min="19" max="19" width="9.5546875" style="12" customWidth="1"/>
     <col min="20" max="20" width="16.33203125" style="12" customWidth="1"/>
     <col min="21" max="21" width="14.44140625" style="14" customWidth="1"/>
-    <col min="28" max="28" width="15.5546875" customWidth="1"/>
-    <col min="36" max="16384" width="9.109375" style="1"/>
+    <col min="29" max="29" width="15.5546875" customWidth="1"/>
+    <col min="37" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -790,38 +796,41 @@
       <c r="Y1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="AI2" s="2">
         <v>35</v>
       </c>
+      <c r="AJ2" s="2">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" s="8" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" s="8" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1005,33 +1017,36 @@
         <v>50</v>
       </c>
       <c r="Z3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AB3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AC3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AH3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>59</v>
       </c>
     </row>
